--- a/PF7111/TFB.xlsx
+++ b/PF7111/TFB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documents\TPS\py_tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mars/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F0BB1-597A-4BAD-B08A-BE2BF82938DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C79D0A-9F65-454F-9AA9-58E339628696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{4E2A18EF-6B8C-4620-8A6A-01E0FD4453E2}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11380" xr2:uid="{4E2A18EF-6B8C-4620-8A6A-01E0FD4453E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower Fly By Data" sheetId="1" r:id="rId1"/>
@@ -437,13 +437,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="1" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>302</v>
       </c>
@@ -478,7 +478,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>399</v>
       </c>
@@ -496,7 +496,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>504</v>
       </c>
@@ -514,7 +514,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>590</v>
       </c>
@@ -532,7 +532,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>203</v>
       </c>
@@ -550,7 +550,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>172</v>
       </c>
@@ -568,9 +568,9 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B8">
         <v>1995</v>

--- a/PF7111/TFB.xlsx
+++ b/PF7111/TFB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mars/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C79D0A-9F65-454F-9AA9-58E339628696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEFAD4B-A9DF-CF4D-B6A2-C1EAE969BB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11380" xr2:uid="{4E2A18EF-6B8C-4620-8A6A-01E0FD4453E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Vic</t>
   </si>
@@ -52,6 +52,9 @@
   <si>
     <t>tower_temp</t>
   </si>
+  <si>
+    <t>T_ic</t>
+  </si>
 </sst>
 </file>
 
@@ -66,11 +69,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -431,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196E65D-42A2-4207-97B2-66063E257665}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,131 +460,261 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>302</v>
-      </c>
-      <c r="B2">
-        <v>2211</v>
-      </c>
-      <c r="C2">
-        <v>3.5</v>
-      </c>
-      <c r="D2">
-        <v>2140</v>
-      </c>
-      <c r="E2">
-        <v>18.7</v>
+      <c r="A2" s="1">
+        <v>299</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2290</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2254</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.17</v>
+      </c>
+      <c r="F2">
+        <v>21.26191251823434</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>399</v>
-      </c>
-      <c r="B3">
-        <v>2209</v>
-      </c>
-      <c r="C3">
-        <v>4.2</v>
-      </c>
-      <c r="D3">
-        <v>2140</v>
-      </c>
-      <c r="E3">
-        <v>18.899999999999999</v>
+      <c r="A3" s="1">
+        <v>347</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2270</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2254</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F3">
+        <v>24.910960408579228</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>504</v>
-      </c>
-      <c r="B4">
-        <v>2221</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="1">
+        <v>400</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2250</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2252</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="F4">
+        <v>30.521757827404258</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>454</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2240</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2250</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="F5">
+        <v>36.64080298027676</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>502</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2250</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2249</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F6">
+        <v>42.627189039789869</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>550</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2240</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2248</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.07</v>
+      </c>
+      <c r="F7">
+        <v>49.185670579479677</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>581</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2210</v>
+      </c>
+      <c r="C8" s="1">
         <v>2.7</v>
       </c>
-      <c r="D4">
-        <v>2150</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>590</v>
-      </c>
-      <c r="B5">
-        <v>2141</v>
-      </c>
-      <c r="C5">
-        <v>3.3</v>
-      </c>
-      <c r="D5">
-        <v>2150</v>
-      </c>
-      <c r="E5">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>203</v>
-      </c>
-      <c r="B6">
-        <v>2240</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>2160</v>
-      </c>
-      <c r="E6">
-        <v>19.2</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>172</v>
-      </c>
-      <c r="B7">
-        <v>2195</v>
-      </c>
-      <c r="C7">
-        <v>2.4</v>
-      </c>
-      <c r="D7">
-        <v>2160</v>
-      </c>
-      <c r="E7">
-        <v>19.3</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>305</v>
-      </c>
-      <c r="B8">
-        <v>1995</v>
-      </c>
-      <c r="C8">
+      <c r="D8" s="1">
+        <v>2248</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F8">
+        <v>53.999775145085437</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>250</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2270</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2245</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="F9">
+        <v>17.906884706460346</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>199</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2250</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2244</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F10">
+        <v>14.523342068377133</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>185</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2260</v>
+      </c>
+      <c r="C11" s="1">
         <v>2.5</v>
       </c>
-      <c r="D8">
-        <v>2010</v>
-      </c>
-      <c r="E8">
-        <v>29.4</v>
-      </c>
+      <c r="D11" s="1">
+        <v>2243</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="F11">
+        <v>14.037626069991802</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>338</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2270</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2244</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F12">
+        <v>24.643081126714662</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>392</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2250</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2244</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="F13">
+        <v>30.379422156978762</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
